--- a/src/선거-집계-통합.xlsx
+++ b/src/선거-집계-통합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9735,22 +9735,6 @@
         <v>285</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>20240406</t>
-        </is>
-      </c>
-      <c r="B582" t="n">
-        <v>136</v>
-      </c>
-      <c r="C582" t="n">
-        <v>114</v>
-      </c>
-      <c r="D582" t="n">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
